--- a/cea/databases/DE/components/ENERGY_CARRIERS.xlsx
+++ b/cea/databases/DE/components/ENERGY_CARRIERS.xlsx
@@ -1,26 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge38yoz\CityEnergyAnalyst\cea\databases\DE\components\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2BBD4C-9357-4B29-8D5B-EC51DBC0057E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="NATURALGAS" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="BIOGAS" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="GRID" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="SOLAR" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="OIL" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="COAL" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="WOOD" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="WETBIOMASS" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="DRYBIOMASS" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="NATURALGAS" sheetId="1" r:id="rId1"/>
+    <sheet name="BIOGAS" sheetId="2" r:id="rId2"/>
+    <sheet name="GRID" sheetId="3" r:id="rId3"/>
+    <sheet name="SOLAR" sheetId="4" r:id="rId4"/>
+    <sheet name="OIL" sheetId="5" r:id="rId5"/>
+    <sheet name="COAL" sheetId="6" r:id="rId6"/>
+    <sheet name="WOOD" sheetId="7" r:id="rId7"/>
+    <sheet name="WETBIOMASS" sheetId="8" r:id="rId8"/>
+    <sheet name="DRYBIOMASS" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="__xlfn_AGGREGATE">#N/A</definedName>
     <definedName name="__xlfn_STDEV_S">#N/A</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -32,67 +52,31 @@
     <author>tc={0024004B-008B-4748-AFC7-004200FE00F3}</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" xr:uid="{002E0022-0099-42BD-A425-000A002600C6}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{002E0022-0099-42BD-A425-000A002600C6}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">
-green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
 </t>
-        </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" xr:uid="{00930055-0069-4C5E-B73E-002B00620020}">
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{00930055-0069-4C5E-B73E-002B00620020}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </t>
-        </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="2" xr:uid="{0024004B-008B-4748-AFC7-004200FE00F3}">
+    <comment ref="D1" authorId="2" shapeId="0" xr:uid="{0024004B-008B-4748-AFC7-004200FE00F3}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -107,67 +91,31 @@
     <author>tc={00770040-00CF-4284-98C0-007A001B004E}</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" xr:uid="{004C0076-00DE-4E86-A501-008700F5005C}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{004C0076-00DE-4E86-A501-008700F5005C}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">
-green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
 </t>
-        </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" xr:uid="{003A00F0-00EC-4C19-BAB4-00C900800004}">
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{003A00F0-00EC-4C19-BAB4-00C900800004}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </t>
-        </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="2" xr:uid="{00770040-00CF-4284-98C0-007A001B004E}">
+    <comment ref="D1" authorId="2" shapeId="0" xr:uid="{00770040-00CF-4284-98C0-007A001B004E}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -182,67 +130,31 @@
     <author>tc={00070014-0054-4CB9-9C2B-006400CD00C1}</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" xr:uid="{00690039-003B-460D-BCF6-00F0008200CD}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00690039-003B-460D-BCF6-00F0008200CD}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">
-green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
 </t>
-        </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" xr:uid="{00A20003-0040-4D9E-A9F6-00CA00C00031}">
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{00A20003-0040-4D9E-A9F6-00CA00C00031}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </t>
-        </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="2" xr:uid="{00070014-0054-4CB9-9C2B-006400CD00C1}">
+    <comment ref="D1" authorId="2" shapeId="0" xr:uid="{00070014-0054-4CB9-9C2B-006400CD00C1}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -257,67 +169,31 @@
     <author>tc={00B7007B-0082-4EF6-817D-007F00B5003A}</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" xr:uid="{002A006B-00F3-465D-926F-00B3008E006F}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{002A006B-00F3-465D-926F-00B3008E006F}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">
-green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
 </t>
-        </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" xr:uid="{00C800EB-0079-4597-ADCF-0040005B0075}">
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{00C800EB-0079-4597-ADCF-0040005B0075}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </t>
-        </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="2" xr:uid="{00B7007B-0082-4EF6-817D-007F00B5003A}">
+    <comment ref="D1" authorId="2" shapeId="0" xr:uid="{00B7007B-0082-4EF6-817D-007F00B5003A}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -332,67 +208,31 @@
     <author>tc={00B000BC-009A-4976-8B16-00AE00FC005D}</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" xr:uid="{00A2000F-00A6-4B33-A2A2-009100DF004F}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00A2000F-00A6-4B33-A2A2-009100DF004F}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">
-green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
 </t>
-        </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" xr:uid="{002C00BC-0002-4FB6-A945-009600C30034}">
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{002C00BC-0002-4FB6-A945-009600C30034}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </t>
-        </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="2" xr:uid="{00B000BC-009A-4976-8B16-00AE00FC005D}">
+    <comment ref="D1" authorId="2" shapeId="0" xr:uid="{00B000BC-009A-4976-8B16-00AE00FC005D}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -407,67 +247,31 @@
     <author>tc={00AE00CB-00B7-4D50-A48B-00FA004E00E8}</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" xr:uid="{000D00FC-0003-4DBE-B6AD-0088003B004F}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{000D00FC-0003-4DBE-B6AD-0088003B004F}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">
-green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
 </t>
-        </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" xr:uid="{006800B8-0025-4834-80F0-0016008E00E2}">
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{006800B8-0025-4834-80F0-0016008E00E2}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </t>
-        </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="2" xr:uid="{00AE00CB-00B7-4D50-A48B-00FA004E00E8}">
+    <comment ref="D1" authorId="2" shapeId="0" xr:uid="{00AE00CB-00B7-4D50-A48B-00FA004E00E8}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -482,67 +286,31 @@
     <author>tc={008A00CF-0015-45A1-85CC-005D007C0033}</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" xr:uid="{006300D9-005F-4513-BA6F-00A2007900B3}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{006300D9-005F-4513-BA6F-00A2007900B3}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">
-green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
 </t>
-        </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" xr:uid="{00480066-00A5-4F65-8DAF-00A80062009A}">
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{00480066-00A5-4F65-8DAF-00A80062009A}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </t>
-        </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="2" xr:uid="{008A00CF-0015-45A1-85CC-005D007C0033}">
+    <comment ref="D1" authorId="2" shapeId="0" xr:uid="{008A00CF-0015-45A1-85CC-005D007C0033}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -557,67 +325,31 @@
     <author>tc={00640047-00BD-4231-A91A-0057008C0099}</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" xr:uid="{00340062-00F4-4181-811B-002900CA0064}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00340062-00F4-4181-811B-002900CA0064}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">
-green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
 </t>
-        </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" xr:uid="{00FE00E4-0037-4664-BD37-005E0005006D}">
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{00FE00E4-0037-4664-BD37-005E0005006D}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </t>
-        </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="2" xr:uid="{00640047-00BD-4231-A91A-0057008C0099}">
+    <comment ref="D1" authorId="2" shapeId="0" xr:uid="{00640047-00BD-4231-A91A-0057008C0099}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -632,67 +364,31 @@
     <author>tc={0049009C-0054-40B0-ABA4-00700078003A}</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" xr:uid="{001E0064-009B-45BA-B3D1-00CB00A40039}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{001E0064-009B-45BA-B3D1-00CB00A40039}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">
-green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
 </t>
-        </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" xr:uid="{00EF001A-0035-4581-A59A-00D2008D0065}">
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{00EF001A-0035-4581-A59A-00D2008D0065}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </t>
-        </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="2" xr:uid="{0049009C-0054-40B0-ABA4-00700078003A}">
+    <comment ref="D1" authorId="2" shapeId="0" xr:uid="{0049009C-0054-40B0-ABA4-00700078003A}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -700,7 +396,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="38">
   <si>
     <t>hour</t>
   </si>
@@ -720,7 +416,7 @@
     <t>0</t>
   </si>
   <si>
-    <t xml:space="preserve">KBOB 2009/1:2016, ID 41.002 Erdgas, destatis.de Prices Data on energy price trends 2022</t>
+    <t>KBOB 2009/1:2016, ID 41.002 Erdgas, destatis.de Prices Data on energy price trends 2022</t>
   </si>
   <si>
     <t>1</t>
@@ -792,64 +488,69 @@
     <t>23</t>
   </si>
   <si>
-    <t xml:space="preserve">KBOB 2009/1:2016, ID 41.009 Biogas, oekostromanbieter.org 2023</t>
+    <t>KBOB 2009/1:2016, ID 41.009 Biogas, oekostromanbieter.org 2023</t>
   </si>
   <si>
-    <t xml:space="preserve">destatis.de Prices Data on energy price trends 2022, https://www.redcert.org/images/SG_DE_THG_Berechnung_Vers04.pdf für GHG</t>
+    <t>destatis.de Prices Data on energy price trends 2022, https://www.redcert.org/images/SG_DE_THG_Berechnung_Vers04.pdf für GHG</t>
   </si>
   <si>
-    <t xml:space="preserve">https://efahrer.chip.de/solaranlagen 2023</t>
+    <t>https://efahrer.chip.de/solaranlagen 2023</t>
   </si>
   <si>
-    <t xml:space="preserve">KBOB 2009/1:2016, ID 41.001 Heizöl, https://www.oeffentlichen-dienst.de/wirtschafts-news/277-ratgeber/3930-heizung.html 2022/2023</t>
+    <t>KBOB 2009/1:2016, ID 41.001 Heizöl, https://www.oeffentlichen-dienst.de/wirtschafts-news/277-ratgeber/3930-heizung.html 2022/2023</t>
   </si>
   <si>
-    <t xml:space="preserve">KBOB 2009/1:2016, ID 41.004/41.005 (average), https://www.focus.de/finanzen/boerse/konjunktur/atom-kohle-gas-wind-solar-welche-stromart-uns-am-wenigsten-kostet_id_11658454.html 2019</t>
+    <t>KBOB 2009/1:2016, ID 41.004/41.005 (average), https://www.focus.de/finanzen/boerse/konjunktur/atom-kohle-gas-wind-solar-welche-stromart-uns-am-wenigsten-kostet_id_11658454.html 2019</t>
   </si>
   <si>
-    <t xml:space="preserve">KBOB 2009/1:2016, ID 41.006 Stückholz (average), https://www.stuttgarter-nachrichten.de/inhalt.gas-holz-heizen-vergleich-mhsd.8f4b9f41-02ae-4668-9663-bed3d613b4fe.html 2022</t>
+    <t>KBOB 2009/1:2016, ID 41.006 Stückholz (average), https://www.stuttgarter-nachrichten.de/inhalt.gas-holz-heizen-vergleich-mhsd.8f4b9f41-02ae-4668-9663-bed3d613b4fe.html 2022</t>
   </si>
   <si>
     <t xml:space="preserve">KBOB 2009/1:2016, ID 42.001 Kehrichtverbrennung, Technikkatalog KEA 2022 (Trendlinie ab 2021)
 </t>
   </si>
   <si>
-    <t xml:space="preserve">KBOB 2009/1:2016, ID 42.001 Kehrichtverbrennung, cost from CEA</t>
+    <t>KBOB 2009/1:2016, ID 42.001 Kehrichtverbrennung, cost from CEA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="160" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color indexed="64"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color indexed="65"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="64"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -904,37 +605,37 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="3" fillId="2" borderId="1" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="3" fillId="2" borderId="2" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="2" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="2" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -942,301 +643,21 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Jimeno" id="{4B90F996-061A-97F4-77C6-57F53AA32760}"/>
+  <person displayName="Jimeno" id="{4B90F996-061A-97F4-77C6-57F53AA32760}" userId="" providerId=""/>
 </personList>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1500,20 +921,21 @@
       <a:lstStyle/>
     </a:lnDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B1" personId="{4B90F996-061A-97F4-77C6-57F53AA32760}" id="{002E0022-0099-42BD-A425-000A002600C6}" done="0">
+  <threadedComment ref="B1" personId="{4B90F996-061A-97F4-77C6-57F53AA32760}" id="{002E0022-0099-42BD-A425-000A002600C6}">
     <text xml:space="preserve">green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
 </text>
   </threadedComment>
-  <threadedComment ref="C1" personId="{4B90F996-061A-97F4-77C6-57F53AA32760}" id="{00930055-0069-4C5E-B73E-002B00620020}" done="0">
+  <threadedComment ref="C1" personId="{4B90F996-061A-97F4-77C6-57F53AA32760}" id="{00930055-0069-4C5E-B73E-002B00620020}">
     <text xml:space="preserve">Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </text>
   </threadedComment>
-  <threadedComment ref="D1" personId="{4B90F996-061A-97F4-77C6-57F53AA32760}" id="{0024004B-008B-4748-AFC7-004200FE00F3}" done="0">
+  <threadedComment ref="D1" personId="{4B90F996-061A-97F4-77C6-57F53AA32760}" id="{0024004B-008B-4748-AFC7-004200FE00F3}">
     <text xml:space="preserve">Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </text>
   </threadedComment>
@@ -1522,15 +944,15 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B1" personId="{4B90F996-061A-97F4-77C6-57F53AA32760}" id="{004C0076-00DE-4E86-A501-008700F5005C}" done="0">
+  <threadedComment ref="B1" personId="{4B90F996-061A-97F4-77C6-57F53AA32760}" id="{004C0076-00DE-4E86-A501-008700F5005C}">
     <text xml:space="preserve">green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
 </text>
   </threadedComment>
-  <threadedComment ref="C1" personId="{4B90F996-061A-97F4-77C6-57F53AA32760}" id="{003A00F0-00EC-4C19-BAB4-00C900800004}" done="0">
+  <threadedComment ref="C1" personId="{4B90F996-061A-97F4-77C6-57F53AA32760}" id="{003A00F0-00EC-4C19-BAB4-00C900800004}">
     <text xml:space="preserve">Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </text>
   </threadedComment>
-  <threadedComment ref="D1" personId="{4B90F996-061A-97F4-77C6-57F53AA32760}" id="{00770040-00CF-4284-98C0-007A001B004E}" done="0">
+  <threadedComment ref="D1" personId="{4B90F996-061A-97F4-77C6-57F53AA32760}" id="{00770040-00CF-4284-98C0-007A001B004E}">
     <text xml:space="preserve">Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </text>
   </threadedComment>
@@ -1539,15 +961,15 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B1" personId="{4B90F996-061A-97F4-77C6-57F53AA32760}" id="{00690039-003B-460D-BCF6-00F0008200CD}" done="0">
+  <threadedComment ref="B1" personId="{4B90F996-061A-97F4-77C6-57F53AA32760}" id="{00690039-003B-460D-BCF6-00F0008200CD}">
     <text xml:space="preserve">green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
 </text>
   </threadedComment>
-  <threadedComment ref="C1" personId="{4B90F996-061A-97F4-77C6-57F53AA32760}" id="{00A20003-0040-4D9E-A9F6-00CA00C00031}" done="0">
+  <threadedComment ref="C1" personId="{4B90F996-061A-97F4-77C6-57F53AA32760}" id="{00A20003-0040-4D9E-A9F6-00CA00C00031}">
     <text xml:space="preserve">Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </text>
   </threadedComment>
-  <threadedComment ref="D1" personId="{4B90F996-061A-97F4-77C6-57F53AA32760}" id="{00070014-0054-4CB9-9C2B-006400CD00C1}" done="0">
+  <threadedComment ref="D1" personId="{4B90F996-061A-97F4-77C6-57F53AA32760}" id="{00070014-0054-4CB9-9C2B-006400CD00C1}">
     <text xml:space="preserve">Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </text>
   </threadedComment>
@@ -1556,15 +978,15 @@
 
 <file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B1" personId="{4B90F996-061A-97F4-77C6-57F53AA32760}" id="{002A006B-00F3-465D-926F-00B3008E006F}" done="0">
+  <threadedComment ref="B1" personId="{4B90F996-061A-97F4-77C6-57F53AA32760}" id="{002A006B-00F3-465D-926F-00B3008E006F}">
     <text xml:space="preserve">green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
 </text>
   </threadedComment>
-  <threadedComment ref="C1" personId="{4B90F996-061A-97F4-77C6-57F53AA32760}" id="{00C800EB-0079-4597-ADCF-0040005B0075}" done="0">
+  <threadedComment ref="C1" personId="{4B90F996-061A-97F4-77C6-57F53AA32760}" id="{00C800EB-0079-4597-ADCF-0040005B0075}">
     <text xml:space="preserve">Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </text>
   </threadedComment>
-  <threadedComment ref="D1" personId="{4B90F996-061A-97F4-77C6-57F53AA32760}" id="{00B7007B-0082-4EF6-817D-007F00B5003A}" done="0">
+  <threadedComment ref="D1" personId="{4B90F996-061A-97F4-77C6-57F53AA32760}" id="{00B7007B-0082-4EF6-817D-007F00B5003A}">
     <text xml:space="preserve">Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </text>
   </threadedComment>
@@ -1573,15 +995,15 @@
 
 <file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B1" personId="{4B90F996-061A-97F4-77C6-57F53AA32760}" id="{00A2000F-00A6-4B33-A2A2-009100DF004F}" done="0">
+  <threadedComment ref="B1" personId="{4B90F996-061A-97F4-77C6-57F53AA32760}" id="{00A2000F-00A6-4B33-A2A2-009100DF004F}">
     <text xml:space="preserve">green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
 </text>
   </threadedComment>
-  <threadedComment ref="C1" personId="{4B90F996-061A-97F4-77C6-57F53AA32760}" id="{002C00BC-0002-4FB6-A945-009600C30034}" done="0">
+  <threadedComment ref="C1" personId="{4B90F996-061A-97F4-77C6-57F53AA32760}" id="{002C00BC-0002-4FB6-A945-009600C30034}">
     <text xml:space="preserve">Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </text>
   </threadedComment>
-  <threadedComment ref="D1" personId="{4B90F996-061A-97F4-77C6-57F53AA32760}" id="{00B000BC-009A-4976-8B16-00AE00FC005D}" done="0">
+  <threadedComment ref="D1" personId="{4B90F996-061A-97F4-77C6-57F53AA32760}" id="{00B000BC-009A-4976-8B16-00AE00FC005D}">
     <text xml:space="preserve">Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </text>
   </threadedComment>
@@ -1590,15 +1012,15 @@
 
 <file path=xl/threadedComments/threadedComment6.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B1" personId="{4B90F996-061A-97F4-77C6-57F53AA32760}" id="{000D00FC-0003-4DBE-B6AD-0088003B004F}" done="0">
+  <threadedComment ref="B1" personId="{4B90F996-061A-97F4-77C6-57F53AA32760}" id="{000D00FC-0003-4DBE-B6AD-0088003B004F}">
     <text xml:space="preserve">green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
 </text>
   </threadedComment>
-  <threadedComment ref="C1" personId="{4B90F996-061A-97F4-77C6-57F53AA32760}" id="{006800B8-0025-4834-80F0-0016008E00E2}" done="0">
+  <threadedComment ref="C1" personId="{4B90F996-061A-97F4-77C6-57F53AA32760}" id="{006800B8-0025-4834-80F0-0016008E00E2}">
     <text xml:space="preserve">Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </text>
   </threadedComment>
-  <threadedComment ref="D1" personId="{4B90F996-061A-97F4-77C6-57F53AA32760}" id="{00AE00CB-00B7-4D50-A48B-00FA004E00E8}" done="0">
+  <threadedComment ref="D1" personId="{4B90F996-061A-97F4-77C6-57F53AA32760}" id="{00AE00CB-00B7-4D50-A48B-00FA004E00E8}">
     <text xml:space="preserve">Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </text>
   </threadedComment>
@@ -1607,15 +1029,15 @@
 
 <file path=xl/threadedComments/threadedComment7.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B1" personId="{4B90F996-061A-97F4-77C6-57F53AA32760}" id="{006300D9-005F-4513-BA6F-00A2007900B3}" done="0">
+  <threadedComment ref="B1" personId="{4B90F996-061A-97F4-77C6-57F53AA32760}" id="{006300D9-005F-4513-BA6F-00A2007900B3}">
     <text xml:space="preserve">green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
 </text>
   </threadedComment>
-  <threadedComment ref="C1" personId="{4B90F996-061A-97F4-77C6-57F53AA32760}" id="{00480066-00A5-4F65-8DAF-00A80062009A}" done="0">
+  <threadedComment ref="C1" personId="{4B90F996-061A-97F4-77C6-57F53AA32760}" id="{00480066-00A5-4F65-8DAF-00A80062009A}">
     <text xml:space="preserve">Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </text>
   </threadedComment>
-  <threadedComment ref="D1" personId="{4B90F996-061A-97F4-77C6-57F53AA32760}" id="{008A00CF-0015-45A1-85CC-005D007C0033}" done="0">
+  <threadedComment ref="D1" personId="{4B90F996-061A-97F4-77C6-57F53AA32760}" id="{008A00CF-0015-45A1-85CC-005D007C0033}">
     <text xml:space="preserve">Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </text>
   </threadedComment>
@@ -1624,15 +1046,15 @@
 
 <file path=xl/threadedComments/threadedComment8.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B1" personId="{4B90F996-061A-97F4-77C6-57F53AA32760}" id="{00340062-00F4-4181-811B-002900CA0064}" done="0">
+  <threadedComment ref="B1" personId="{4B90F996-061A-97F4-77C6-57F53AA32760}" id="{00340062-00F4-4181-811B-002900CA0064}">
     <text xml:space="preserve">green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
 </text>
   </threadedComment>
-  <threadedComment ref="C1" personId="{4B90F996-061A-97F4-77C6-57F53AA32760}" id="{00FE00E4-0037-4664-BD37-005E0005006D}" done="0">
+  <threadedComment ref="C1" personId="{4B90F996-061A-97F4-77C6-57F53AA32760}" id="{00FE00E4-0037-4664-BD37-005E0005006D}">
     <text xml:space="preserve">Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </text>
   </threadedComment>
-  <threadedComment ref="D1" personId="{4B90F996-061A-97F4-77C6-57F53AA32760}" id="{00640047-00BD-4231-A91A-0057008C0099}" done="0">
+  <threadedComment ref="D1" personId="{4B90F996-061A-97F4-77C6-57F53AA32760}" id="{00640047-00BD-4231-A91A-0057008C0099}">
     <text xml:space="preserve">Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </text>
   </threadedComment>
@@ -1641,15 +1063,15 @@
 
 <file path=xl/threadedComments/threadedComment9.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B1" personId="{4B90F996-061A-97F4-77C6-57F53AA32760}" id="{001E0064-009B-45BA-B3D1-00CB00A40039}" done="0">
+  <threadedComment ref="B1" personId="{4B90F996-061A-97F4-77C6-57F53AA32760}" id="{001E0064-009B-45BA-B3D1-00CB00A40039}">
     <text xml:space="preserve">green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
 </text>
   </threadedComment>
-  <threadedComment ref="C1" personId="{4B90F996-061A-97F4-77C6-57F53AA32760}" id="{00EF001A-0035-4581-A59A-00D2008D0065}" done="0">
+  <threadedComment ref="C1" personId="{4B90F996-061A-97F4-77C6-57F53AA32760}" id="{00EF001A-0035-4581-A59A-00D2008D0065}">
     <text xml:space="preserve">Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </text>
   </threadedComment>
-  <threadedComment ref="D1" personId="{4B90F996-061A-97F4-77C6-57F53AA32760}" id="{0049009C-0054-40B0-ABA4-00700078003A}" done="0">
+  <threadedComment ref="D1" personId="{4B90F996-061A-97F4-77C6-57F53AA32760}" id="{0049009C-0054-40B0-ABA4-00700078003A}">
     <text xml:space="preserve">Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </text>
   </threadedComment>
@@ -1657,22 +1079,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="B1" activeCellId="0" sqref="B1:D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" width="5.1796875"/>
-    <col bestFit="1" customWidth="1" min="2" max="2" width="14"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" width="30"/>
-    <col bestFit="1" customWidth="1" min="4" max="4" width="29.81640625"/>
-    <col bestFit="1" customWidth="1" min="5" max="5" width="68.1796875"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1689,464 +1112,463 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:B25" si="0">0.228/3.6</f>
-        <v>0.063333333333333339</v>
+        <v>6.3333333333333339E-2</v>
       </c>
       <c r="C2" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="D2" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3">
         <f t="shared" si="0"/>
-        <v>0.063333333333333339</v>
+        <v>6.3333333333333339E-2</v>
       </c>
       <c r="C3" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="D3" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3">
         <f t="shared" si="0"/>
-        <v>0.063333333333333339</v>
+        <v>6.3333333333333339E-2</v>
       </c>
       <c r="C4" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="D4" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="3">
         <f t="shared" si="0"/>
-        <v>0.063333333333333339</v>
+        <v>6.3333333333333339E-2</v>
       </c>
       <c r="C5" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="3">
         <f t="shared" si="0"/>
-        <v>0.063333333333333339</v>
+        <v>6.3333333333333339E-2</v>
       </c>
       <c r="C6" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="D6" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="3">
         <f t="shared" si="0"/>
-        <v>0.063333333333333339</v>
+        <v>6.3333333333333339E-2</v>
       </c>
       <c r="C7" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="D7" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="3">
         <f t="shared" si="0"/>
-        <v>0.063333333333333339</v>
+        <v>6.3333333333333339E-2</v>
       </c>
       <c r="C8" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="D8" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="3">
         <f t="shared" si="0"/>
-        <v>0.063333333333333339</v>
+        <v>6.3333333333333339E-2</v>
       </c>
       <c r="C9" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="D9" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="3">
         <f t="shared" si="0"/>
-        <v>0.063333333333333339</v>
+        <v>6.3333333333333339E-2</v>
       </c>
       <c r="C10" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="D10" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="3">
         <f t="shared" si="0"/>
-        <v>0.063333333333333339</v>
+        <v>6.3333333333333339E-2</v>
       </c>
       <c r="C11" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="D11" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="3">
         <f t="shared" si="0"/>
-        <v>0.063333333333333339</v>
+        <v>6.3333333333333339E-2</v>
       </c>
       <c r="C12" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="D12" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="3">
         <f t="shared" si="0"/>
-        <v>0.063333333333333339</v>
+        <v>6.3333333333333339E-2</v>
       </c>
       <c r="C13" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="D13" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="3">
         <f t="shared" si="0"/>
-        <v>0.063333333333333339</v>
+        <v>6.3333333333333339E-2</v>
       </c>
       <c r="C14" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="D14" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="3">
         <f t="shared" si="0"/>
-        <v>0.063333333333333339</v>
+        <v>6.3333333333333339E-2</v>
       </c>
       <c r="C15" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="D15" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="3">
         <f t="shared" si="0"/>
-        <v>0.063333333333333339</v>
+        <v>6.3333333333333339E-2</v>
       </c>
       <c r="C16" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="D16" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="3">
         <f t="shared" si="0"/>
-        <v>0.063333333333333339</v>
+        <v>6.3333333333333339E-2</v>
       </c>
       <c r="C17" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="D17" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="3">
         <f t="shared" si="0"/>
-        <v>0.063333333333333339</v>
+        <v>6.3333333333333339E-2</v>
       </c>
       <c r="C18" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="D18" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="3">
         <f t="shared" si="0"/>
-        <v>0.063333333333333339</v>
+        <v>6.3333333333333339E-2</v>
       </c>
       <c r="C19" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="D19" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
-        <v>0.063333333333333339</v>
+        <v>6.3333333333333339E-2</v>
       </c>
       <c r="C20" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="D20" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
-        <v>0.063333333333333339</v>
+        <v>6.3333333333333339E-2</v>
       </c>
       <c r="C21" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="D21" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="3">
         <f t="shared" si="0"/>
-        <v>0.063333333333333339</v>
+        <v>6.3333333333333339E-2</v>
       </c>
       <c r="C22" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="D22" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="3">
         <f t="shared" si="0"/>
-        <v>0.063333333333333339</v>
+        <v>6.3333333333333339E-2</v>
       </c>
       <c r="C23" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="D23" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="3">
         <f t="shared" si="0"/>
-        <v>0.063333333333333339</v>
+        <v>6.3333333333333339E-2</v>
       </c>
       <c r="C24" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="D24" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="3">
         <f t="shared" si="0"/>
-        <v>0.063333333333333339</v>
+        <v>6.3333333333333339E-2</v>
       </c>
       <c r="C25" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="D25" s="3">
-        <v>0.092999999999999985</v>
+        <v>9.2999999999999985E-2</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="B1" activeCellId="0" sqref="B1:D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" width="5.1796875"/>
-    <col customWidth="1" min="2" max="2" width="8.453125"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" width="30"/>
-    <col bestFit="1" customWidth="1" min="4" max="4" width="29.81640625"/>
-    <col bestFit="1" customWidth="1" min="5" max="5" width="68.1796875"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2163,13 +1585,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3">
-        <f t="shared" ref="B2:B25" si="1">0.13/3.6</f>
-        <v>0.036111111111111115</v>
+        <f t="shared" ref="B2:B25" si="0">0.13/3.6</f>
+        <v>3.6111111111111115E-2</v>
       </c>
       <c r="C2" s="5">
         <v>0.13</v>
@@ -2181,13 +1603,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3">
-        <f t="shared" si="1"/>
-        <v>0.036111111111111115</v>
+        <f t="shared" si="0"/>
+        <v>3.6111111111111115E-2</v>
       </c>
       <c r="C3" s="5">
         <v>0.13</v>
@@ -2199,13 +1621,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3">
-        <f t="shared" si="1"/>
-        <v>0.036111111111111115</v>
+        <f t="shared" si="0"/>
+        <v>3.6111111111111115E-2</v>
       </c>
       <c r="C4" s="5">
         <v>0.13</v>
@@ -2217,13 +1639,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="3">
-        <f t="shared" si="1"/>
-        <v>0.036111111111111115</v>
+        <f t="shared" si="0"/>
+        <v>3.6111111111111115E-2</v>
       </c>
       <c r="C5" s="5">
         <v>0.13</v>
@@ -2235,13 +1657,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="3">
-        <f t="shared" si="1"/>
-        <v>0.036111111111111115</v>
+        <f t="shared" si="0"/>
+        <v>3.6111111111111115E-2</v>
       </c>
       <c r="C6" s="5">
         <v>0.13</v>
@@ -2253,13 +1675,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="3">
-        <f t="shared" si="1"/>
-        <v>0.036111111111111115</v>
+        <f t="shared" si="0"/>
+        <v>3.6111111111111115E-2</v>
       </c>
       <c r="C7" s="5">
         <v>0.13</v>
@@ -2271,13 +1693,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="3">
-        <f t="shared" si="1"/>
-        <v>0.036111111111111115</v>
+        <f t="shared" si="0"/>
+        <v>3.6111111111111115E-2</v>
       </c>
       <c r="C8" s="5">
         <v>0.13</v>
@@ -2289,13 +1711,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="3">
-        <f t="shared" si="1"/>
-        <v>0.036111111111111115</v>
+        <f t="shared" si="0"/>
+        <v>3.6111111111111115E-2</v>
       </c>
       <c r="C9" s="5">
         <v>0.13</v>
@@ -2307,13 +1729,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="3">
-        <f t="shared" si="1"/>
-        <v>0.036111111111111115</v>
+        <f t="shared" si="0"/>
+        <v>3.6111111111111115E-2</v>
       </c>
       <c r="C10" s="5">
         <v>0.13</v>
@@ -2325,13 +1747,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="3">
-        <f t="shared" si="1"/>
-        <v>0.036111111111111115</v>
+        <f t="shared" si="0"/>
+        <v>3.6111111111111115E-2</v>
       </c>
       <c r="C11" s="5">
         <v>0.13</v>
@@ -2343,13 +1765,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="3">
-        <f t="shared" si="1"/>
-        <v>0.036111111111111115</v>
+        <f t="shared" si="0"/>
+        <v>3.6111111111111115E-2</v>
       </c>
       <c r="C12" s="5">
         <v>0.13</v>
@@ -2361,13 +1783,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="3">
-        <f t="shared" si="1"/>
-        <v>0.036111111111111115</v>
+        <f t="shared" si="0"/>
+        <v>3.6111111111111115E-2</v>
       </c>
       <c r="C13" s="5">
         <v>0.13</v>
@@ -2379,13 +1801,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="3">
-        <f t="shared" si="1"/>
-        <v>0.036111111111111115</v>
+        <f t="shared" si="0"/>
+        <v>3.6111111111111115E-2</v>
       </c>
       <c r="C14" s="5">
         <v>0.13</v>
@@ -2397,13 +1819,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="3">
-        <f t="shared" si="1"/>
-        <v>0.036111111111111115</v>
+        <f t="shared" si="0"/>
+        <v>3.6111111111111115E-2</v>
       </c>
       <c r="C15" s="5">
         <v>0.13</v>
@@ -2415,13 +1837,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="3">
-        <f t="shared" si="1"/>
-        <v>0.036111111111111115</v>
+        <f t="shared" si="0"/>
+        <v>3.6111111111111115E-2</v>
       </c>
       <c r="C16" s="5">
         <v>0.13</v>
@@ -2433,13 +1855,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="3">
-        <f t="shared" si="1"/>
-        <v>0.036111111111111115</v>
+        <f t="shared" si="0"/>
+        <v>3.6111111111111115E-2</v>
       </c>
       <c r="C17" s="5">
         <v>0.13</v>
@@ -2451,13 +1873,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="3">
-        <f t="shared" si="1"/>
-        <v>0.036111111111111115</v>
+        <f t="shared" si="0"/>
+        <v>3.6111111111111115E-2</v>
       </c>
       <c r="C18" s="5">
         <v>0.13</v>
@@ -2469,13 +1891,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="3">
-        <f t="shared" si="1"/>
-        <v>0.036111111111111115</v>
+        <f t="shared" si="0"/>
+        <v>3.6111111111111115E-2</v>
       </c>
       <c r="C19" s="5">
         <v>0.13</v>
@@ -2487,13 +1909,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="3">
-        <f t="shared" si="1"/>
-        <v>0.036111111111111115</v>
+        <f t="shared" si="0"/>
+        <v>3.6111111111111115E-2</v>
       </c>
       <c r="C20" s="5">
         <v>0.13</v>
@@ -2505,13 +1927,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="3">
-        <f t="shared" si="1"/>
-        <v>0.036111111111111115</v>
+        <f t="shared" si="0"/>
+        <v>3.6111111111111115E-2</v>
       </c>
       <c r="C21" s="5">
         <v>0.13</v>
@@ -2523,13 +1945,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="3">
-        <f t="shared" si="1"/>
-        <v>0.036111111111111115</v>
+        <f t="shared" si="0"/>
+        <v>3.6111111111111115E-2</v>
       </c>
       <c r="C22" s="5">
         <v>0.13</v>
@@ -2541,13 +1963,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="3">
-        <f t="shared" si="1"/>
-        <v>0.036111111111111115</v>
+        <f t="shared" si="0"/>
+        <v>3.6111111111111115E-2</v>
       </c>
       <c r="C23" s="5">
         <v>0.13</v>
@@ -2559,13 +1981,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="3">
-        <f t="shared" si="1"/>
-        <v>0.036111111111111115</v>
+        <f t="shared" si="0"/>
+        <v>3.6111111111111115E-2</v>
       </c>
       <c r="C24" s="5">
         <v>0.13</v>
@@ -2577,13 +1999,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="3">
-        <f t="shared" si="1"/>
-        <v>0.036111111111111115</v>
+        <f t="shared" si="0"/>
+        <v>3.6111111111111115E-2</v>
       </c>
       <c r="C25" s="5">
         <v>0.13</v>
@@ -2596,31 +2018,30 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="B1" activeCellId="0" sqref="B1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" width="5.1796875"/>
-    <col customWidth="1" min="2" max="2" width="7.453125"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" width="30"/>
-    <col bestFit="1" customWidth="1" min="4" max="4" width="29.81640625"/>
-    <col bestFit="1" customWidth="1" min="5" max="5" width="68.1796875"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2637,403 +2058,403 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3">
-        <v>0.090999999999999998</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C2" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="D2" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3">
-        <v>0.090999999999999998</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C3" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="D3" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3">
-        <v>0.090999999999999998</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C4" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="D4" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="3">
-        <v>0.090999999999999998</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C5" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="D5" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="3">
-        <v>0.090999999999999998</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C6" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="D6" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="3">
-        <v>0.090999999999999998</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C7" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="D7" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="3">
-        <v>0.090999999999999998</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C8" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="D8" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="3">
-        <v>0.090999999999999998</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C9" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="D9" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="3">
-        <v>0.090999999999999998</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C10" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="D10" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="3">
-        <v>0.090999999999999998</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C11" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="D11" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="3">
-        <v>0.090999999999999998</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C12" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="D12" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="3">
-        <v>0.090999999999999998</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C13" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="D13" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="3">
-        <v>0.090999999999999998</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C14" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="D14" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="3">
-        <v>0.090999999999999998</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C15" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="D15" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="3">
-        <v>0.090999999999999998</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C16" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="D16" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="3">
-        <v>0.090999999999999998</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C17" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="D17" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="3">
-        <v>0.090999999999999998</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C18" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="D18" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="3">
-        <v>0.090999999999999998</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C19" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="D19" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="3">
-        <v>0.090999999999999998</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C20" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="D20" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="3">
-        <v>0.090999999999999998</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C21" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="D21" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="3">
-        <v>0.090999999999999998</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C22" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="D22" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="3">
-        <v>0.090999999999999998</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C23" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="D23" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="3">
-        <v>0.090999999999999998</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C24" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="D24" s="5">
-        <v>0.34999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="3">
-        <v>0.090999999999999998</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C25" s="5">
         <v>0.35000000000000031</v>
@@ -3046,31 +2467,30 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" width="5.1796875"/>
-    <col bestFit="1" customWidth="1" min="2" max="2" width="14"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" width="30"/>
-    <col bestFit="1" customWidth="1" min="4" max="4" width="29.81640625"/>
-    <col bestFit="1" customWidth="1" min="5" max="5" width="68.1796875"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3087,7 +2507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -3095,16 +2515,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="5">
-        <v>0.48999999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="D2" s="5">
-        <v>0.48999999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -3112,16 +2532,16 @@
         <v>0</v>
       </c>
       <c r="C3" s="5">
-        <v>0.48999999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="D3" s="5">
-        <v>0.48999999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -3129,16 +2549,16 @@
         <v>0</v>
       </c>
       <c r="C4" s="5">
-        <v>0.48999999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="D4" s="5">
-        <v>0.48999999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -3146,16 +2566,16 @@
         <v>0</v>
       </c>
       <c r="C5" s="5">
-        <v>0.48999999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="D5" s="5">
-        <v>0.48999999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -3163,16 +2583,16 @@
         <v>0</v>
       </c>
       <c r="C6" s="5">
-        <v>0.48999999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="D6" s="5">
-        <v>0.48999999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -3180,16 +2600,16 @@
         <v>0</v>
       </c>
       <c r="C7" s="5">
-        <v>0.48999999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="D7" s="5">
-        <v>0.48999999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -3197,16 +2617,16 @@
         <v>0</v>
       </c>
       <c r="C8" s="5">
-        <v>0.48999999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="D8" s="5">
-        <v>0.48999999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -3214,16 +2634,16 @@
         <v>0</v>
       </c>
       <c r="C9" s="5">
-        <v>0.48999999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="D9" s="5">
-        <v>0.48999999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -3231,16 +2651,16 @@
         <v>0</v>
       </c>
       <c r="C10" s="5">
-        <v>0.48999999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="D10" s="5">
-        <v>0.48999999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -3248,16 +2668,16 @@
         <v>0</v>
       </c>
       <c r="C11" s="5">
-        <v>0.48999999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="D11" s="5">
-        <v>0.48999999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -3265,16 +2685,16 @@
         <v>0</v>
       </c>
       <c r="C12" s="5">
-        <v>0.48999999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="D12" s="5">
-        <v>0.48999999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -3282,16 +2702,16 @@
         <v>0</v>
       </c>
       <c r="C13" s="5">
-        <v>0.48999999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="D13" s="5">
-        <v>0.48999999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -3299,16 +2719,16 @@
         <v>0</v>
       </c>
       <c r="C14" s="5">
-        <v>0.48999999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="D14" s="5">
-        <v>0.48999999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -3316,16 +2736,16 @@
         <v>0</v>
       </c>
       <c r="C15" s="5">
-        <v>0.48999999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="D15" s="5">
-        <v>0.48999999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -3333,16 +2753,16 @@
         <v>0</v>
       </c>
       <c r="C16" s="5">
-        <v>0.48999999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="D16" s="5">
-        <v>0.48999999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -3350,16 +2770,16 @@
         <v>0</v>
       </c>
       <c r="C17" s="5">
-        <v>0.48999999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="D17" s="5">
-        <v>0.48999999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -3367,16 +2787,16 @@
         <v>0</v>
       </c>
       <c r="C18" s="5">
-        <v>0.48999999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="D18" s="5">
-        <v>0.48999999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -3384,16 +2804,16 @@
         <v>0</v>
       </c>
       <c r="C19" s="5">
-        <v>0.48999999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="D19" s="5">
-        <v>0.48999999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
@@ -3401,16 +2821,16 @@
         <v>0</v>
       </c>
       <c r="C20" s="5">
-        <v>0.48999999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="D20" s="5">
-        <v>0.48999999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -3418,16 +2838,16 @@
         <v>0</v>
       </c>
       <c r="C21" s="5">
-        <v>0.48999999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="D21" s="5">
-        <v>0.48999999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -3435,16 +2855,16 @@
         <v>0</v>
       </c>
       <c r="C22" s="5">
-        <v>0.48999999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="D22" s="5">
-        <v>0.48999999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
@@ -3452,16 +2872,16 @@
         <v>0</v>
       </c>
       <c r="C23" s="5">
-        <v>0.48999999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="D23" s="5">
-        <v>0.48999999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
@@ -3469,16 +2889,16 @@
         <v>0</v>
       </c>
       <c r="C24" s="5">
-        <v>0.48999999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="D24" s="5">
-        <v>0.48999999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
@@ -3486,41 +2906,40 @@
         <v>0</v>
       </c>
       <c r="C25" s="5">
-        <v>0.48999999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="D25" s="5">
-        <v>0.48999999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="B1" activeCellId="0" sqref="B1:D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" width="5.1796875"/>
-    <col customWidth="1" min="2" max="2" width="7.453125"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" width="30"/>
-    <col bestFit="1" customWidth="1" min="4" max="4" width="29.81640625"/>
-    <col bestFit="1" customWidth="1" min="5" max="5" width="68.1796875"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3537,13 +2956,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3">
-        <f t="shared" ref="B2:B25" si="2">0.301/3.6</f>
-        <v>0.083611111111111108</v>
+        <f t="shared" ref="B2:B25" si="0">0.301/3.6</f>
+        <v>8.3611111111111108E-2</v>
       </c>
       <c r="C2" s="5">
         <v>0.14000000000000001</v>
@@ -3555,13 +2974,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3">
-        <f t="shared" si="2"/>
-        <v>0.083611111111111108</v>
+        <f t="shared" si="0"/>
+        <v>8.3611111111111108E-2</v>
       </c>
       <c r="C3" s="5">
         <v>0.14000000000000001</v>
@@ -3573,13 +2992,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3">
-        <f t="shared" si="2"/>
-        <v>0.083611111111111108</v>
+        <f t="shared" si="0"/>
+        <v>8.3611111111111108E-2</v>
       </c>
       <c r="C4" s="5">
         <v>0.14000000000000001</v>
@@ -3591,13 +3010,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="3">
-        <f t="shared" si="2"/>
-        <v>0.083611111111111108</v>
+        <f t="shared" si="0"/>
+        <v>8.3611111111111108E-2</v>
       </c>
       <c r="C5" s="5">
         <v>0.14000000000000001</v>
@@ -3609,13 +3028,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="3">
-        <f t="shared" si="2"/>
-        <v>0.083611111111111108</v>
+        <f t="shared" si="0"/>
+        <v>8.3611111111111108E-2</v>
       </c>
       <c r="C6" s="5">
         <v>0.14000000000000001</v>
@@ -3627,13 +3046,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="3">
-        <f t="shared" si="2"/>
-        <v>0.083611111111111108</v>
+        <f t="shared" si="0"/>
+        <v>8.3611111111111108E-2</v>
       </c>
       <c r="C7" s="5">
         <v>0.14000000000000001</v>
@@ -3645,13 +3064,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="3">
-        <f t="shared" si="2"/>
-        <v>0.083611111111111108</v>
+        <f t="shared" si="0"/>
+        <v>8.3611111111111108E-2</v>
       </c>
       <c r="C8" s="5">
         <v>0.14000000000000001</v>
@@ -3663,13 +3082,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="3">
-        <f t="shared" si="2"/>
-        <v>0.083611111111111108</v>
+        <f t="shared" si="0"/>
+        <v>8.3611111111111108E-2</v>
       </c>
       <c r="C9" s="5">
         <v>0.14000000000000001</v>
@@ -3681,13 +3100,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="3">
-        <f t="shared" si="2"/>
-        <v>0.083611111111111108</v>
+        <f t="shared" si="0"/>
+        <v>8.3611111111111108E-2</v>
       </c>
       <c r="C10" s="5">
         <v>0.14000000000000001</v>
@@ -3699,13 +3118,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="3">
-        <f t="shared" si="2"/>
-        <v>0.083611111111111108</v>
+        <f t="shared" si="0"/>
+        <v>8.3611111111111108E-2</v>
       </c>
       <c r="C11" s="5">
         <v>0.14000000000000001</v>
@@ -3717,13 +3136,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="3">
-        <f t="shared" si="2"/>
-        <v>0.083611111111111108</v>
+        <f t="shared" si="0"/>
+        <v>8.3611111111111108E-2</v>
       </c>
       <c r="C12" s="5">
         <v>0.14000000000000001</v>
@@ -3735,13 +3154,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="3">
-        <f t="shared" si="2"/>
-        <v>0.083611111111111108</v>
+        <f t="shared" si="0"/>
+        <v>8.3611111111111108E-2</v>
       </c>
       <c r="C13" s="5">
         <v>0.14000000000000001</v>
@@ -3753,13 +3172,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="3">
-        <f t="shared" si="2"/>
-        <v>0.083611111111111108</v>
+        <f t="shared" si="0"/>
+        <v>8.3611111111111108E-2</v>
       </c>
       <c r="C14" s="5">
         <v>0.14000000000000001</v>
@@ -3771,13 +3190,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="3">
-        <f t="shared" si="2"/>
-        <v>0.083611111111111108</v>
+        <f t="shared" si="0"/>
+        <v>8.3611111111111108E-2</v>
       </c>
       <c r="C15" s="5">
         <v>0.14000000000000001</v>
@@ -3789,13 +3208,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="3">
-        <f t="shared" si="2"/>
-        <v>0.083611111111111108</v>
+        <f t="shared" si="0"/>
+        <v>8.3611111111111108E-2</v>
       </c>
       <c r="C16" s="5">
         <v>0.14000000000000001</v>
@@ -3807,13 +3226,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="3">
-        <f t="shared" si="2"/>
-        <v>0.083611111111111108</v>
+        <f t="shared" si="0"/>
+        <v>8.3611111111111108E-2</v>
       </c>
       <c r="C17" s="5">
         <v>0.14000000000000001</v>
@@ -3825,13 +3244,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="3">
-        <f t="shared" si="2"/>
-        <v>0.083611111111111108</v>
+        <f t="shared" si="0"/>
+        <v>8.3611111111111108E-2</v>
       </c>
       <c r="C18" s="5">
         <v>0.14000000000000001</v>
@@ -3843,13 +3262,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="3">
-        <f t="shared" si="2"/>
-        <v>0.083611111111111108</v>
+        <f t="shared" si="0"/>
+        <v>8.3611111111111108E-2</v>
       </c>
       <c r="C19" s="5">
         <v>0.14000000000000001</v>
@@ -3861,13 +3280,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="3">
-        <f t="shared" si="2"/>
-        <v>0.083611111111111108</v>
+        <f t="shared" si="0"/>
+        <v>8.3611111111111108E-2</v>
       </c>
       <c r="C20" s="5">
         <v>0.14000000000000001</v>
@@ -3879,13 +3298,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="3">
-        <f t="shared" si="2"/>
-        <v>0.083611111111111108</v>
+        <f t="shared" si="0"/>
+        <v>8.3611111111111108E-2</v>
       </c>
       <c r="C21" s="5">
         <v>0.14000000000000001</v>
@@ -3897,13 +3316,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="3">
-        <f t="shared" si="2"/>
-        <v>0.083611111111111108</v>
+        <f t="shared" si="0"/>
+        <v>8.3611111111111108E-2</v>
       </c>
       <c r="C22" s="5">
         <v>0.14000000000000001</v>
@@ -3915,13 +3334,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="3">
-        <f t="shared" si="2"/>
-        <v>0.083611111111111108</v>
+        <f t="shared" si="0"/>
+        <v>8.3611111111111108E-2</v>
       </c>
       <c r="C23" s="5">
         <v>0.14000000000000001</v>
@@ -3933,13 +3352,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="3">
-        <f t="shared" si="2"/>
-        <v>0.083611111111111108</v>
+        <f t="shared" si="0"/>
+        <v>8.3611111111111108E-2</v>
       </c>
       <c r="C24" s="5">
         <v>0.14000000000000001</v>
@@ -3951,13 +3370,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="3">
-        <f t="shared" si="2"/>
-        <v>0.083611111111111108</v>
+        <f t="shared" si="0"/>
+        <v>8.3611111111111108E-2</v>
       </c>
       <c r="C25" s="5">
         <v>0.14000000000000001</v>
@@ -3970,31 +3389,30 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="B1" activeCellId="0" sqref="B1:D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" width="5.1796875"/>
-    <col customWidth="1" min="2" max="2" width="7.453125"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" width="30"/>
-    <col bestFit="1" customWidth="1" min="4" max="4" width="29.81640625"/>
-    <col customWidth="1" min="5" max="5" width="55.7265625"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4011,12 +3429,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3">
-        <f t="shared" ref="B2:B25" si="3">((0.399+0.439)/2)/3.6</f>
+        <f t="shared" ref="B2:B25" si="0">((0.399+0.439)/2)/3.6</f>
         <v>0.1163888888888889</v>
       </c>
       <c r="C2" s="5">
@@ -4029,12 +3447,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.1163888888888889</v>
       </c>
       <c r="C3" s="5">
@@ -4047,12 +3465,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.1163888888888889</v>
       </c>
       <c r="C4" s="5">
@@ -4065,12 +3483,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.1163888888888889</v>
       </c>
       <c r="C5" s="5">
@@ -4083,12 +3501,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.1163888888888889</v>
       </c>
       <c r="C6" s="5">
@@ -4101,12 +3519,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.1163888888888889</v>
       </c>
       <c r="C7" s="5">
@@ -4119,12 +3537,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.1163888888888889</v>
       </c>
       <c r="C8" s="5">
@@ -4137,12 +3555,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.1163888888888889</v>
       </c>
       <c r="C9" s="5">
@@ -4155,12 +3573,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.1163888888888889</v>
       </c>
       <c r="C10" s="5">
@@ -4173,12 +3591,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.1163888888888889</v>
       </c>
       <c r="C11" s="5">
@@ -4191,12 +3609,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.1163888888888889</v>
       </c>
       <c r="C12" s="5">
@@ -4209,12 +3627,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.1163888888888889</v>
       </c>
       <c r="C13" s="5">
@@ -4227,12 +3645,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.1163888888888889</v>
       </c>
       <c r="C14" s="5">
@@ -4245,12 +3663,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.1163888888888889</v>
       </c>
       <c r="C15" s="5">
@@ -4263,12 +3681,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.1163888888888889</v>
       </c>
       <c r="C16" s="5">
@@ -4281,12 +3699,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.1163888888888889</v>
       </c>
       <c r="C17" s="5">
@@ -4299,12 +3717,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.1163888888888889</v>
       </c>
       <c r="C18" s="5">
@@ -4317,12 +3735,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.1163888888888889</v>
       </c>
       <c r="C19" s="5">
@@ -4335,12 +3753,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.1163888888888889</v>
       </c>
       <c r="C20" s="5">
@@ -4353,12 +3771,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.1163888888888889</v>
       </c>
       <c r="C21" s="5">
@@ -4371,12 +3789,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.1163888888888889</v>
       </c>
       <c r="C22" s="5">
@@ -4389,12 +3807,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.1163888888888889</v>
       </c>
       <c r="C23" s="5">
@@ -4407,12 +3825,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.1163888888888889</v>
       </c>
       <c r="C24" s="5">
@@ -4425,12 +3843,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.1163888888888889</v>
       </c>
       <c r="C25" s="5">
@@ -4444,31 +3862,30 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="B1" activeCellId="0" sqref="B1:D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" width="5.1796875"/>
-    <col customWidth="1" min="2" max="2" width="9.57421875"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" width="30"/>
-    <col bestFit="1" customWidth="1" min="4" max="4" width="29.81640625"/>
-    <col customWidth="1" min="5" max="5" width="55.7265625"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4485,464 +3902,463 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3">
-        <f t="shared" ref="B2:B25" si="4">0.027/3.6</f>
-        <v>0.0074999999999999997</v>
+        <f t="shared" ref="B2:B25" si="0">0.027/3.6</f>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C2" s="5">
-        <v>0.082000000000000003</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D2" s="5">
-        <v>0.082000000000000003</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3">
-        <f t="shared" si="4"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C3" s="5">
-        <v>0.082000000000000003</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D3" s="5">
-        <v>0.082000000000000003</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3">
-        <f t="shared" si="4"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C4" s="5">
-        <v>0.082000000000000003</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D4" s="5">
-        <v>0.082000000000000003</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="3">
-        <f t="shared" si="4"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C5" s="5">
-        <v>0.082000000000000003</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D5" s="5">
-        <v>0.082000000000000003</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="3">
-        <f t="shared" si="4"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C6" s="5">
-        <v>0.082000000000000003</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D6" s="5">
-        <v>0.082000000000000003</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="3">
-        <f t="shared" si="4"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C7" s="5">
-        <v>0.082000000000000003</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D7" s="5">
-        <v>0.082000000000000003</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="3">
-        <f t="shared" si="4"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C8" s="5">
-        <v>0.082000000000000003</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D8" s="5">
-        <v>0.082000000000000003</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="3">
-        <f t="shared" si="4"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C9" s="5">
-        <v>0.082000000000000003</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D9" s="5">
-        <v>0.082000000000000003</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="3">
-        <f t="shared" si="4"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C10" s="5">
-        <v>0.082000000000000003</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D10" s="5">
-        <v>0.082000000000000003</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="3">
-        <f t="shared" si="4"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C11" s="5">
-        <v>0.082000000000000003</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D11" s="5">
-        <v>0.082000000000000003</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="3">
-        <f t="shared" si="4"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C12" s="5">
-        <v>0.082000000000000003</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D12" s="5">
-        <v>0.082000000000000003</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="3">
-        <f t="shared" si="4"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C13" s="5">
-        <v>0.082000000000000003</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D13" s="5">
-        <v>0.082000000000000003</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="3">
-        <f t="shared" si="4"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C14" s="5">
-        <v>0.082000000000000003</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D14" s="5">
-        <v>0.082000000000000003</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="3">
-        <f t="shared" si="4"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C15" s="5">
-        <v>0.082000000000000003</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D15" s="5">
-        <v>0.082000000000000003</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="3">
-        <f t="shared" si="4"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C16" s="5">
-        <v>0.082000000000000003</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D16" s="5">
-        <v>0.082000000000000003</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="3">
-        <f t="shared" si="4"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C17" s="5">
-        <v>0.082000000000000003</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D17" s="5">
-        <v>0.082000000000000003</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="3">
-        <f t="shared" si="4"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C18" s="5">
-        <v>0.082000000000000003</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D18" s="5">
-        <v>0.082000000000000003</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="3">
-        <f t="shared" si="4"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C19" s="5">
-        <v>0.082000000000000003</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D19" s="5">
-        <v>0.082000000000000003</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="3">
-        <f t="shared" si="4"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C20" s="5">
-        <v>0.082000000000000003</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D20" s="5">
-        <v>0.082000000000000003</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="3">
-        <f t="shared" si="4"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C21" s="5">
-        <v>0.082000000000000003</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D21" s="5">
-        <v>0.082000000000000003</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="3">
-        <f t="shared" si="4"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C22" s="5">
-        <v>0.082000000000000003</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D22" s="5">
-        <v>0.082000000000000003</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="3">
-        <f t="shared" si="4"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C23" s="5">
-        <v>0.082000000000000003</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D23" s="5">
-        <v>0.082000000000000003</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="3">
-        <f t="shared" si="4"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C24" s="5">
-        <v>0.082000000000000003</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D24" s="5">
-        <v>0.082000000000000003</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="3">
-        <f t="shared" si="4"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C25" s="5">
-        <v>0.082000000000000003</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D25" s="5">
-        <v>0.082000000000000003</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="B1" activeCellId="0" sqref="B1:D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" width="5.1796875"/>
-    <col bestFit="1" customWidth="1" min="2" max="2" width="14"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" width="30"/>
-    <col bestFit="1" customWidth="1" min="4" max="4" width="29.81640625"/>
-    <col customWidth="1" min="5" max="5" width="55.7265625"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4959,464 +4375,463 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="40.5">
+    <row r="2" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3">
-        <f t="shared" ref="B2:B25" si="5">0.027/3.6</f>
-        <v>0.0074999999999999997</v>
+        <f t="shared" ref="B2:B25" si="0">0.027/3.6</f>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C2" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="D2" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" ht="40.5">
+    <row r="3" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3">
-        <f t="shared" si="5"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C3" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="D3" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" ht="40.5">
+    <row r="4" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3">
-        <f t="shared" si="5"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C4" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="D4" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" ht="40.5">
+    <row r="5" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="3">
-        <f t="shared" si="5"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C5" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="D5" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" ht="40.5">
+    <row r="6" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="3">
-        <f t="shared" si="5"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C6" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="D6" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" ht="40.5">
+    <row r="7" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="3">
-        <f t="shared" si="5"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C7" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="D7" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" ht="40.5">
+    <row r="8" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="3">
-        <f t="shared" si="5"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C8" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="D8" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" ht="40.5">
+    <row r="9" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="3">
-        <f t="shared" si="5"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C9" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="D9" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" ht="40.5">
+    <row r="10" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="3">
-        <f t="shared" si="5"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C10" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="D10" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" ht="40.5">
+    <row r="11" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="3">
-        <f t="shared" si="5"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C11" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="D11" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" ht="40.5">
+    <row r="12" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="3">
-        <f t="shared" si="5"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C12" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="D12" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" ht="40.5">
+    <row r="13" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="3">
-        <f t="shared" si="5"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C13" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="D13" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" ht="40.5">
+    <row r="14" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="3">
-        <f t="shared" si="5"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C14" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="D14" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" ht="40.5">
+    <row r="15" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="3">
-        <f t="shared" si="5"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C15" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="D15" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" ht="40.5">
+    <row r="16" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="3">
-        <f t="shared" si="5"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C16" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="D16" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" ht="40.5">
+    <row r="17" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="3">
-        <f t="shared" si="5"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C17" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="D17" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" ht="40.5">
+    <row r="18" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="3">
-        <f t="shared" si="5"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C18" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="D18" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" ht="40.5">
+    <row r="19" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="3">
-        <f t="shared" si="5"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C19" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="D19" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" ht="40.5">
+    <row r="20" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="3">
-        <f t="shared" si="5"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C20" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="D20" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" ht="40.5">
+    <row r="21" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="3">
-        <f t="shared" si="5"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C21" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="D21" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" ht="40.5">
+    <row r="22" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="3">
-        <f t="shared" si="5"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C22" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="D22" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="40.5">
+    <row r="23" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="3">
-        <f t="shared" si="5"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C23" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="D23" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" ht="40.5">
+    <row r="24" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="3">
-        <f t="shared" si="5"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C24" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="D24" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" ht="40.5">
+    <row r="25" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="3">
-        <f t="shared" si="5"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C25" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="D25" s="5">
-        <v>0.32000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="C28" activeCellId="0" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" width="5.1796875"/>
-    <col bestFit="1" customWidth="1" min="2" max="2" width="14"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" width="30"/>
-    <col bestFit="1" customWidth="1" min="4" max="4" width="29.81640625"/>
-    <col customWidth="1" min="5" max="5" width="55.7265625"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5433,480 +4848,480 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3">
-        <f t="shared" ref="B2:B25" si="6">0.027/3.6</f>
-        <v>0.0074999999999999997</v>
+        <f t="shared" ref="B2:B25" si="0">0.027/3.6</f>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C2" s="5">
-        <f t="shared" ref="C2:D25" si="7">0.2*1.04</f>
+        <f t="shared" ref="C2:D25" si="1">0.2*1.04</f>
         <v>0.20800000000000002</v>
       </c>
       <c r="D2" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3">
-        <f t="shared" si="6"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C3" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D3" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3">
-        <f t="shared" si="6"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C4" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D4" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="3">
-        <f t="shared" si="6"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D5" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="3">
-        <f t="shared" si="6"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C6" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D6" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="3">
-        <f t="shared" si="6"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C7" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D7" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="3">
-        <f t="shared" si="6"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="3">
-        <f t="shared" si="6"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C9" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D9" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="3">
-        <f t="shared" si="6"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C10" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D10" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="3">
-        <f t="shared" si="6"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C11" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D11" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="3">
-        <f t="shared" si="6"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C12" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D12" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="3">
-        <f t="shared" si="6"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C13" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D13" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="3">
-        <f t="shared" si="6"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="3">
-        <f t="shared" si="6"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C15" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D15" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="3">
-        <f t="shared" si="6"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C16" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D16" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="3">
-        <f t="shared" si="6"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C17" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D17" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="3">
-        <f t="shared" si="6"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C18" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D18" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="3">
-        <f t="shared" si="6"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C19" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D19" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="3">
-        <f t="shared" si="6"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C20" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D20" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="3">
-        <f t="shared" si="6"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C21" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D21" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="3">
-        <f t="shared" si="6"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C22" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D22" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="3">
-        <f t="shared" si="6"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C23" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D23" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="3">
-        <f t="shared" si="6"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C24" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D24" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="3">
-        <f t="shared" si="6"/>
-        <v>0.0074999999999999997</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C25" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D25" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E25" s="4" t="s">
@@ -5914,10 +5329,8 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>